--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ccl4</t>
+  </si>
+  <si>
+    <t>Ccr5</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Ccl4</t>
-  </si>
-  <si>
-    <t>Ccr5</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>330.777059</v>
+        <v>0.2195956666666667</v>
       </c>
       <c r="H2">
-        <v>992.3311769999999</v>
+        <v>0.658787</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.059282</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N2">
-        <v>6.177846</v>
+        <v>0.005813</v>
       </c>
       <c r="O2">
-        <v>0.9506927780787987</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P2">
-        <v>0.9506927780787987</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q2">
-        <v>681.1632436116379</v>
+        <v>0.0004255032034444444</v>
       </c>
       <c r="R2">
-        <v>6130.469192504741</v>
+        <v>0.003829528831</v>
       </c>
       <c r="S2">
-        <v>0.9506927780787987</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="T2">
-        <v>0.9506927780787987</v>
+        <v>0.02300073991714511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>330.777059</v>
+        <v>0.2195956666666667</v>
       </c>
       <c r="H3">
-        <v>992.3311769999999</v>
+        <v>0.658787</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,90 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08230599999999999</v>
+        <v>0.082306</v>
       </c>
       <c r="N3">
         <v>0.246918</v>
       </c>
       <c r="O3">
-        <v>0.03799757381094653</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P3">
-        <v>0.03799757381094653</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q3">
-        <v>27.22493661805399</v>
+        <v>0.01807404094066667</v>
       </c>
       <c r="R3">
-        <v>245.0244295624859</v>
+        <v>0.162666368466</v>
       </c>
       <c r="S3">
-        <v>0.03799757381094653</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="T3">
-        <v>0.03799757381094653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>330.777059</v>
-      </c>
-      <c r="H4">
-        <v>992.3311769999999</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02449766666666666</v>
-      </c>
-      <c r="N4">
-        <v>0.07349299999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="P4">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="Q4">
-        <v>8.103266132362331</v>
-      </c>
-      <c r="R4">
-        <v>72.92939519126098</v>
-      </c>
-      <c r="S4">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="T4">
-        <v>0.0113096481102548</v>
+        <v>0.976999260082855</v>
       </c>
     </row>
   </sheetData>
